--- a/kzp_2023_ue.xlsx
+++ b/kzp_2023_ue.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lab_7sem\pis\lab1\LAB1_PIS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1ABF11-9666-458D-8D5A-96EAAA4CB4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9705"/>
+    <workbookView xWindow="3120" yWindow="1065" windowWidth="12540" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Усього</t>
   </si>
@@ -287,11 +293,14 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <t>asdasdasd</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -555,22 +564,22 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -583,13 +592,13 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -607,12 +616,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -887,18 +896,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -986,7 +995,9 @@
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="C7" s="7"/>
       <c r="F7" s="8" t="s">
         <v>3</v>
